--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_8_34.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_8_34.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3069902.733794237</v>
+        <v>3065597.017418166</v>
       </c>
     </row>
     <row r="7">
@@ -658,25 +658,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>337.9463874884739</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>413.784170020795</v>
+        <v>79.2346282728888</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -706,28 +706,28 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -822,7 +822,7 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>22.98569063694849</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
@@ -864,7 +864,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>22.98569063694827</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -895,28 +895,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>118.2255273839243</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -943,25 +943,25 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481172</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>22.67137997671646</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -995,7 +995,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1053,19 +1053,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>59.72683757586869</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1098,16 +1098,16 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.12274995491431</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -1119,7 +1119,7 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>54.47555601903363</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1132,13 +1132,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>16.01209846167234</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -1147,13 +1147,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>412.9169039459368</v>
+        <v>12.9169039459368</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>118.4960408938903</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1183,16 +1183,16 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>5.940144736756115</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>212.651863114966</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -1293,28 +1293,28 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>152.7120966692326</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>108.4428934381584</v>
       </c>
       <c r="J10" t="n">
-        <v>9.946267109346481</v>
+        <v>17.69584188176898</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1369,16 +1369,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634805</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710075</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.6830416206829</v>
+        <v>354.6830416206838</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722617</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
@@ -1387,7 +1387,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444144</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1420,16 +1420,16 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695524</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701348</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
@@ -1438,7 +1438,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560535</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -1527,22 +1527,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>36.8566599330997</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>140.2947128462239</v>
@@ -1581,13 +1581,13 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>152.3771414330733</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
@@ -1596,7 +1596,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1606,16 +1606,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634805</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710075</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>354.6830416206829</v>
+        <v>354.6830416206824</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722617</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
         <v>406.8760457417114</v>
@@ -1657,16 +1657,16 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695524</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
-        <v>199.022230457616</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
         <v>250.9057009881286</v>
       </c>
       <c r="V14" t="n">
-        <v>327.752258470135</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
@@ -1675,7 +1675,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560535</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="15">
@@ -1764,25 +1764,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>148.0280580960833</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>67.60860312451688</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
         <v>81.26583631856553</v>
@@ -1815,7 +1815,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
         <v>217.4054503272883</v>
@@ -1827,7 +1827,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -1846,13 +1846,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710075</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>354.6830416206829</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722617</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
         <v>406.8760457417114</v>
@@ -1894,13 +1894,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695524</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T17" t="n">
-        <v>199.022230457616</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -1912,7 +1912,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560535</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="18">
@@ -2004,22 +2004,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>68.17501931583776</v>
       </c>
       <c r="I19" t="n">
         <v>81.26583631856553</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2064,10 +2064,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>100.5140508960355</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -2095,7 +2095,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H20" t="n">
         <v>283.1540821444137</v>
@@ -2241,13 +2241,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
@@ -2256,7 +2256,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>139.9371893537534</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
         <v>81.26583631856553</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2295,16 +2295,16 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>286.1844743892441</v>
+        <v>169.5153072244331</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -2481,22 +2481,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2541,10 +2541,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>176.2740711281116</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2724,13 +2724,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>74.20064764874429</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2760,16 +2760,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>201.4105577836242</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2952,7 +2952,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>95.12712756824166</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -3000,7 +3000,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>108.9065924712588</v>
       </c>
       <c r="T31" t="n">
         <v>217.4054503272883</v>
@@ -3192,19 +3192,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>1.799772605716168</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>81.26583631856553</v>
@@ -3237,7 +3237,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
         <v>217.4054503272883</v>
@@ -3246,13 +3246,13 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>79.9081607862897</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -3438,10 +3438,10 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>108.2950343703266</v>
       </c>
       <c r="H37" t="n">
-        <v>83.06560892428269</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3663,19 +3663,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>99.97427419833815</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3711,7 +3711,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
-        <v>136.2892803597723</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
         <v>217.4054503272883</v>
@@ -3748,7 +3748,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
-        <v>381.9303700722614</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
         <v>406.8760457417114</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3912,13 +3912,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3948,13 +3948,13 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>55.52079624060465</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>286.1844743892441</v>
+        <v>172.0260335000785</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -4137,25 +4137,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>28.75188085812005</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,10 +4182,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
-        <v>55.5207962406042</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
         <v>217.4054503272883</v>
@@ -4306,22 +4306,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1920.409918978289</v>
+        <v>1289.01781586839</v>
       </c>
       <c r="C2" t="n">
-        <v>1551.447402037877</v>
+        <v>1289.01781586839</v>
       </c>
       <c r="D2" t="n">
-        <v>1551.447402037877</v>
+        <v>930.7521172616393</v>
       </c>
       <c r="E2" t="n">
-        <v>1210.087414675782</v>
+        <v>544.963864663395</v>
       </c>
       <c r="F2" t="n">
-        <v>799.1015098861748</v>
+        <v>133.9779598737875</v>
       </c>
       <c r="G2" t="n">
-        <v>381.1377017843616</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H2" t="n">
         <v>53.94298182036445</v>
@@ -4330,19 +4330,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
@@ -4354,28 +4354,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2697.149091018222</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U2" t="n">
-        <v>2697.149091018222</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V2" t="n">
-        <v>2697.149091018222</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W2" t="n">
-        <v>2697.149091018222</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="X2" t="n">
-        <v>2697.149091018222</v>
+        <v>1289.01781586839</v>
       </c>
       <c r="Y2" t="n">
-        <v>2307.009759042411</v>
+        <v>1289.01781586839</v>
       </c>
     </row>
     <row r="3">
@@ -4400,7 +4400,7 @@
         <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H3" t="n">
         <v>115.9856282673424</v>
@@ -4409,31 +4409,31 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K3" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L3" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598706</v>
       </c>
       <c r="M3" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417901</v>
       </c>
       <c r="N3" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O3" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P3" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S3" t="n">
         <v>2488.762748073963</v>
@@ -4464,10 +4464,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>675.4941957298054</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="C4" t="n">
-        <v>675.4941957298054</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="D4" t="n">
         <v>675.4941957298054</v>
@@ -4494,46 +4494,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M4" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q4" t="n">
-        <v>698.7120650600561</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="R4" t="n">
-        <v>675.4941957298054</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="S4" t="n">
-        <v>675.4941957298054</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="T4" t="n">
-        <v>675.4941957298054</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="U4" t="n">
-        <v>675.4941957298054</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="V4" t="n">
-        <v>675.4941957298054</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="W4" t="n">
-        <v>675.4941957298054</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="X4" t="n">
-        <v>675.4941957298054</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="Y4" t="n">
-        <v>675.4941957298054</v>
+        <v>698.7120650600564</v>
       </c>
     </row>
     <row r="5">
@@ -4543,25 +4543,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1371.274936282423</v>
+        <v>818.8658378359718</v>
       </c>
       <c r="C5" t="n">
-        <v>1002.312419342012</v>
+        <v>818.8658378359718</v>
       </c>
       <c r="D5" t="n">
-        <v>1002.312419342012</v>
+        <v>460.6001392292213</v>
       </c>
       <c r="E5" t="n">
-        <v>1002.312419342012</v>
+        <v>74.81188663097703</v>
       </c>
       <c r="F5" t="n">
-        <v>591.3265145524042</v>
+        <v>67.86638588177355</v>
       </c>
       <c r="G5" t="n">
-        <v>173.3627064505911</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H5" t="n">
-        <v>173.3627064505911</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
@@ -4570,16 +4570,16 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4591,28 +4591,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S5" t="n">
-        <v>2465.942913862886</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T5" t="n">
-        <v>2465.942913862886</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="U5" t="n">
-        <v>2465.942913862886</v>
+        <v>2279.43655248959</v>
       </c>
       <c r="V5" t="n">
-        <v>2134.880026519315</v>
+        <v>1948.373665146019</v>
       </c>
       <c r="W5" t="n">
-        <v>2134.880026519315</v>
+        <v>1595.605009875905</v>
       </c>
       <c r="X5" t="n">
-        <v>1761.414268258235</v>
+        <v>1595.605009875905</v>
       </c>
       <c r="Y5" t="n">
-        <v>1371.274936282423</v>
+        <v>1205.465677900094</v>
       </c>
     </row>
     <row r="6">
@@ -4661,10 +4661,10 @@
         <v>1866.936832414847</v>
       </c>
       <c r="O6" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P6" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018223</v>
@@ -4701,16 +4701,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>53.94298182036445</v>
+        <v>667.7988452409105</v>
       </c>
       <c r="C7" t="n">
-        <v>53.94298182036445</v>
+        <v>498.8626623130036</v>
       </c>
       <c r="D7" t="n">
-        <v>53.94298182036445</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="E7" t="n">
-        <v>53.94298182036445</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F7" t="n">
         <v>53.94298182036445</v>
@@ -4731,46 +4731,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M7" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R7" t="n">
-        <v>550.5654064942401</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S7" t="n">
-        <v>336.2769833124028</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T7" t="n">
-        <v>108.9687959810045</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U7" t="n">
-        <v>108.9687959810045</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V7" t="n">
-        <v>108.9687959810045</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W7" t="n">
-        <v>108.9687959810045</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="X7" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Y7" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064344</v>
       </c>
     </row>
     <row r="8">
@@ -4780,49 +4780,49 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1359.975337580184</v>
+        <v>863.1126181035243</v>
       </c>
       <c r="C8" t="n">
-        <v>1359.975337580184</v>
+        <v>494.1501011631125</v>
       </c>
       <c r="D8" t="n">
-        <v>1001.709638973434</v>
+        <v>477.9762643331405</v>
       </c>
       <c r="E8" t="n">
-        <v>1001.709638973434</v>
+        <v>477.9762643331405</v>
       </c>
       <c r="F8" t="n">
-        <v>590.7237341838262</v>
+        <v>66.99035954353293</v>
       </c>
       <c r="G8" t="n">
-        <v>173.6359524202537</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H8" t="n">
-        <v>173.6359524202537</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I8" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>242.5828808341008</v>
+        <v>75.17723181374775</v>
       </c>
       <c r="K8" t="n">
-        <v>646.0499938541462</v>
+        <v>192.4307036906658</v>
       </c>
       <c r="L8" t="n">
-        <v>1094.46325341956</v>
+        <v>745.243961936865</v>
       </c>
       <c r="M8" t="n">
-        <v>1281.162666244967</v>
+        <v>1376.961772920177</v>
       </c>
       <c r="N8" t="n">
-        <v>1475.49687913695</v>
+        <v>2004.269440980023</v>
       </c>
       <c r="O8" t="n">
-        <v>2022.658083904027</v>
+        <v>2551.430645747101</v>
       </c>
       <c r="P8" t="n">
-        <v>2451.973130243322</v>
+        <v>2662.164970996627</v>
       </c>
       <c r="Q8" t="n">
         <v>2697.149091018222</v>
@@ -4831,25 +4831,25 @@
         <v>2697.149091018222</v>
       </c>
       <c r="S8" t="n">
-        <v>2691.148944819479</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T8" t="n">
-        <v>2476.34908308719</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U8" t="n">
-        <v>2476.34908308719</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V8" t="n">
-        <v>2476.34908308719</v>
+        <v>2366.086203674652</v>
       </c>
       <c r="W8" t="n">
-        <v>2123.580427817076</v>
+        <v>2013.317548404538</v>
       </c>
       <c r="X8" t="n">
-        <v>1750.114669555996</v>
+        <v>1639.851790143458</v>
       </c>
       <c r="Y8" t="n">
-        <v>1359.975337580184</v>
+        <v>1249.712458167646</v>
       </c>
     </row>
     <row r="9">
@@ -4886,19 +4886,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="K9" t="n">
-        <v>142.9741724191618</v>
+        <v>383.3713861261743</v>
       </c>
       <c r="L9" t="n">
-        <v>647.3357122852804</v>
+        <v>887.7329259922928</v>
       </c>
       <c r="M9" t="n">
-        <v>1287.881061752385</v>
+        <v>1528.278275459397</v>
       </c>
       <c r="N9" t="n">
-        <v>1955.425461779395</v>
+        <v>1726.935017112062</v>
       </c>
       <c r="O9" t="n">
-        <v>2504.861470532118</v>
+        <v>2189.58332957858</v>
       </c>
       <c r="P9" t="n">
         <v>2613.551098059417</v>
@@ -4938,28 +4938,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>362.0194492689786</v>
+        <v>651.4366193059393</v>
       </c>
       <c r="C10" t="n">
-        <v>362.0194492689786</v>
+        <v>482.5004363780324</v>
       </c>
       <c r="D10" t="n">
-        <v>211.9028098566429</v>
+        <v>482.5004363780324</v>
       </c>
       <c r="E10" t="n">
-        <v>63.98971627424979</v>
+        <v>482.5004363780324</v>
       </c>
       <c r="F10" t="n">
-        <v>63.98971627424979</v>
+        <v>335.610488880122</v>
       </c>
       <c r="G10" t="n">
-        <v>63.98971627424979</v>
+        <v>335.610488880122</v>
       </c>
       <c r="H10" t="n">
-        <v>63.98971627424979</v>
+        <v>181.3558457798871</v>
       </c>
       <c r="I10" t="n">
-        <v>63.98971627424979</v>
+        <v>71.81756957972706</v>
       </c>
       <c r="J10" t="n">
         <v>53.94298182036445</v>
@@ -5001,13 +5001,13 @@
         <v>1053.877663279709</v>
       </c>
       <c r="W10" t="n">
-        <v>764.4604932427485</v>
+        <v>1053.877663279709</v>
       </c>
       <c r="X10" t="n">
-        <v>764.4604932427485</v>
+        <v>1053.877663279709</v>
       </c>
       <c r="Y10" t="n">
-        <v>543.6679140992184</v>
+        <v>833.085084136179</v>
       </c>
     </row>
     <row r="11">
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551876</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611465</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E11" t="n">
         <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168618</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362693</v>
       </c>
       <c r="H11" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192684</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111726</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075825</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.61155333239</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014781</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355939</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068012</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466575</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123004</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.98095685289</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.51519859181</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615998</v>
       </c>
     </row>
     <row r="12">
@@ -5105,7 +5105,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5114,34 +5114,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K12" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L12" t="n">
-        <v>710.2486053718725</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M12" t="n">
-        <v>1307.627092998424</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N12" t="n">
-        <v>1307.627092998424</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O12" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P12" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q12" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5175,28 +5175,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1098.667160263527</v>
+        <v>614.6217844681064</v>
       </c>
       <c r="C13" t="n">
-        <v>929.7309773356195</v>
+        <v>614.6217844681064</v>
       </c>
       <c r="D13" t="n">
-        <v>779.6143379232838</v>
+        <v>464.5051450557706</v>
       </c>
       <c r="E13" t="n">
-        <v>631.7012443408906</v>
+        <v>464.5051450557706</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429803</v>
+        <v>317.6151975578603</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578602</v>
+        <v>317.6151975578603</v>
       </c>
       <c r="H13" t="n">
         <v>175.9033664000583</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J13" t="n">
         <v>174.0526814782957</v>
@@ -5229,22 +5229,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>2197.062545487567</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U13" t="n">
-        <v>1907.987318831765</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V13" t="n">
-        <v>1653.302830625878</v>
+        <v>1534.469549376854</v>
       </c>
       <c r="W13" t="n">
-        <v>1363.885660588917</v>
+        <v>1245.052379339894</v>
       </c>
       <c r="X13" t="n">
-        <v>1135.8961096909</v>
+        <v>1017.062828441876</v>
       </c>
       <c r="Y13" t="n">
-        <v>1135.8961096909</v>
+        <v>796.2702492983461</v>
       </c>
     </row>
     <row r="14">
@@ -5269,19 +5269,19 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
@@ -5296,7 +5296,7 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q14" t="n">
         <v>4562.265728852255</v>
@@ -5354,28 +5354,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K15" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L15" t="n">
-        <v>738.7889117913853</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M15" t="n">
-        <v>1336.167399417937</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="N15" t="n">
-        <v>1896.176478190825</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O15" t="n">
-        <v>1896.176478190825</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P15" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
         <v>2553.061288060775</v>
@@ -5412,22 +5412,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>878.3568999154069</v>
+        <v>803.2707707770319</v>
       </c>
       <c r="C16" t="n">
-        <v>709.4207169875</v>
+        <v>634.334587849125</v>
       </c>
       <c r="D16" t="n">
-        <v>559.3040775751642</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E16" t="n">
-        <v>411.3909839927711</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F16" t="n">
-        <v>343.0994656851783</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G16" t="n">
-        <v>175.9033664000583</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H16" t="n">
         <v>175.9033664000583</v>
@@ -5463,25 +5463,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>2160.315914855604</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>1871.240688199802</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V16" t="n">
-        <v>1616.556199993915</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W16" t="n">
-        <v>1327.139029956954</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="X16" t="n">
-        <v>1099.149479058937</v>
+        <v>1205.711814750802</v>
       </c>
       <c r="Y16" t="n">
-        <v>878.3568999154069</v>
+        <v>984.9192356072716</v>
       </c>
     </row>
     <row r="17">
@@ -5506,19 +5506,19 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
@@ -5530,7 +5530,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
         <v>4194.413870694707</v>
@@ -5591,19 +5591,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
-        <v>776.1751066403293</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>1373.553594266881</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
         <v>2001.151557821488</v>
@@ -5649,22 +5649,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>929.7309773356195</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C19" t="n">
-        <v>929.7309773356195</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D19" t="n">
-        <v>779.6143379232838</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="E19" t="n">
-        <v>631.7012443408906</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="F19" t="n">
-        <v>484.8112968429803</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578602</v>
+        <v>244.7670222746419</v>
       </c>
       <c r="H19" t="n">
         <v>175.9033664000583</v>
@@ -5697,28 +5697,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.701365648819</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W19" t="n">
-        <v>1332.172021309389</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X19" t="n">
-        <v>1332.172021309389</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y19" t="n">
-        <v>1111.379442165859</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="20">
@@ -5734,13 +5734,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G20" t="n">
         <v>379.8308874362686</v>
@@ -5788,13 +5788,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5834,19 +5834,19 @@
         <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>245.2306927803937</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
-        <v>740.5562989961525</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>1337.934786622704</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N21" t="n">
-        <v>1965.532750177311</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O21" t="n">
-        <v>2517.442480416598</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
         <v>2553.061288060775</v>
@@ -5886,22 +5886,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1098.306025422647</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="C22" t="n">
-        <v>929.3698424947402</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="D22" t="n">
-        <v>779.2532030824044</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="E22" t="n">
-        <v>631.3401095000113</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F22" t="n">
-        <v>484.4501620021009</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G22" t="n">
-        <v>317.2540627169809</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H22" t="n">
         <v>175.9033664000583</v>
@@ -5934,28 +5934,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1755.431557602304</v>
+        <v>1806.233497455525</v>
       </c>
       <c r="V22" t="n">
-        <v>1500.747069396417</v>
+        <v>1551.549009249638</v>
       </c>
       <c r="W22" t="n">
-        <v>1500.747069396417</v>
+        <v>1262.131839212678</v>
       </c>
       <c r="X22" t="n">
-        <v>1500.747069396417</v>
+        <v>1034.14228831466</v>
       </c>
       <c r="Y22" t="n">
-        <v>1279.954490252887</v>
+        <v>813.3497091711304</v>
       </c>
     </row>
     <row r="23">
@@ -5980,19 +5980,19 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J23" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
@@ -6004,7 +6004,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
@@ -6025,13 +6025,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6065,22 +6065,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>1670.092171589158</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N24" t="n">
-        <v>2297.690135143765</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O24" t="n">
         <v>2553.061288060775</v>
@@ -6123,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>784.5811134804959</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C25" t="n">
-        <v>615.644930552589</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D25" t="n">
-        <v>465.5282911402533</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E25" t="n">
-        <v>317.6151975578602</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F25" t="n">
-        <v>317.6151975578602</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G25" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
@@ -6171,28 +6171,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487567</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510508</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.701365648819</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611858</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X25" t="n">
-        <v>966.2295783107356</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y25" t="n">
-        <v>966.2295783107356</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="26">
@@ -6217,16 +6217,16 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I26" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
         <v>852.8523611075807</v>
@@ -6235,13 +6235,13 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
@@ -6265,10 +6265,10 @@
         <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6302,28 +6302,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L27" t="n">
-        <v>738.7889117913853</v>
+        <v>671.2000270096659</v>
       </c>
       <c r="M27" t="n">
-        <v>1336.167399417937</v>
+        <v>1268.578514636218</v>
       </c>
       <c r="N27" t="n">
-        <v>1963.765362972544</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="O27" t="n">
-        <v>2515.675093211831</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P27" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q27" t="n">
         <v>2553.061288060775</v>
@@ -6360,22 +6360,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>849.3843576263199</v>
+        <v>802.9288273958734</v>
       </c>
       <c r="C28" t="n">
-        <v>680.448174698413</v>
+        <v>633.9926444679666</v>
       </c>
       <c r="D28" t="n">
-        <v>530.3315352860773</v>
+        <v>483.8760050556308</v>
       </c>
       <c r="E28" t="n">
-        <v>382.4184417036842</v>
+        <v>335.9629114732377</v>
       </c>
       <c r="F28" t="n">
-        <v>235.5284942057738</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G28" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H28" t="n">
         <v>93.81666304797187</v>
@@ -6408,28 +6408,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>2227.361618603201</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>2023.916610740955</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="V28" t="n">
-        <v>1769.232122535068</v>
+        <v>1722.776592304621</v>
       </c>
       <c r="W28" t="n">
-        <v>1479.814952498107</v>
+        <v>1433.359422267661</v>
       </c>
       <c r="X28" t="n">
-        <v>1251.82540160009</v>
+        <v>1205.369871369643</v>
       </c>
       <c r="Y28" t="n">
-        <v>1031.03282245656</v>
+        <v>984.5772922261132</v>
       </c>
     </row>
     <row r="29">
@@ -6451,34 +6451,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H29" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192457</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111696</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075789</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332385</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014777</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355935</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068008</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
@@ -6539,28 +6539,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>671.2000270096659</v>
+        <v>980.1499206998682</v>
       </c>
       <c r="M30" t="n">
-        <v>1268.578514636218</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="N30" t="n">
-        <v>1896.176478190825</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O30" t="n">
-        <v>1896.176478190825</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P30" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
         <v>2553.061288060775</v>
@@ -6597,7 +6597,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>580.8993044876688</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C31" t="n">
         <v>484.8112968429803</v>
@@ -6648,25 +6648,25 @@
         <v>2446.96308358026</v>
       </c>
       <c r="S31" t="n">
-        <v>2264.108249235165</v>
+        <v>2336.956424518383</v>
       </c>
       <c r="T31" t="n">
-        <v>2044.506784258106</v>
+        <v>2117.354959541324</v>
       </c>
       <c r="U31" t="n">
-        <v>1755.431557602304</v>
+        <v>1828.279732885522</v>
       </c>
       <c r="V31" t="n">
-        <v>1500.747069396417</v>
+        <v>1573.595244679635</v>
       </c>
       <c r="W31" t="n">
-        <v>1211.329899359456</v>
+        <v>1284.178074642674</v>
       </c>
       <c r="X31" t="n">
-        <v>983.3403484614387</v>
+        <v>1056.188523744657</v>
       </c>
       <c r="Y31" t="n">
-        <v>762.5477693179085</v>
+        <v>835.3959446011269</v>
       </c>
     </row>
     <row r="32">
@@ -6688,34 +6688,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H32" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
@@ -6776,28 +6776,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>243.4633055756266</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>840.8417932021785</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N33" t="n">
-        <v>1344.266747951538</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O33" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
         <v>2553.061288060775</v>
@@ -6834,22 +6834,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1098.667160263527</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C34" t="n">
-        <v>929.7309773356195</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D34" t="n">
-        <v>779.6143379232838</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="E34" t="n">
-        <v>631.7012443408906</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="F34" t="n">
-        <v>484.8112968429803</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G34" t="n">
-        <v>317.6151975578602</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H34" t="n">
         <v>175.9033664000583</v>
@@ -6885,25 +6885,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>2160.315914855604</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1871.240688199802</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1871.240688199802</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1581.823518162841</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>1501.108204237296</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>1280.315625093766</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="35">
@@ -6913,28 +6913,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192595</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J35" t="n">
         <v>378.192580311172</v>
@@ -6970,19 +6970,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="36">
@@ -7013,28 +7013,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>243.4633055756266</v>
+        <v>980.1499206998682</v>
       </c>
       <c r="M36" t="n">
-        <v>716.6687843969308</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="N36" t="n">
-        <v>1344.266747951538</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O36" t="n">
-        <v>1896.176478190825</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P36" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
         <v>2553.061288060775</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>2757.723669558405</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C37" t="n">
-        <v>2588.787486630498</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D37" t="n">
-        <v>2588.787486630498</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E37" t="n">
-        <v>2588.787486630498</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F37" t="n">
-        <v>2588.787486630498</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G37" t="n">
-        <v>2421.591387345378</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H37" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L37" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M37" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O37" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P37" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>4623.787448650995</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>4440.9326143059</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>4221.331149328841</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>3932.255922673039</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>3677.571434467152</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>3388.154264430192</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>3160.164713532175</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y37" t="n">
-        <v>2939.372134388645</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="38">
@@ -7150,19 +7150,19 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G38" t="n">
         <v>379.8308874362686</v>
@@ -7171,25 +7171,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7207,19 +7207,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="39">
@@ -7250,28 +7250,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>243.4633055756266</v>
+        <v>980.1499206998682</v>
       </c>
       <c r="M39" t="n">
-        <v>840.8417932021785</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="N39" t="n">
-        <v>1344.266747951538</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O39" t="n">
-        <v>1896.176478190825</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P39" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
         <v>2553.061288060775</v>
@@ -7308,19 +7308,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>559.0424953278208</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C40" t="n">
-        <v>559.0424953278208</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D40" t="n">
-        <v>408.925855915485</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E40" t="n">
-        <v>261.0127623330919</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="F40" t="n">
-        <v>261.0127623330919</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="G40" t="n">
         <v>93.81666304797187</v>
@@ -7359,25 +7359,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2242.251440075317</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>2022.649975098258</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1733.574748442456</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1478.890260236569</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1189.473090199608</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>961.4835393015907</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y40" t="n">
-        <v>740.6909601580605</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="41">
@@ -7393,7 +7393,7 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E41" t="n">
         <v>1204.759558406469</v>
@@ -7408,13 +7408,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111719</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7490,28 +7490,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J42" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K42" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L42" t="n">
-        <v>243.4633055756266</v>
+        <v>589.1422692637306</v>
       </c>
       <c r="M42" t="n">
-        <v>840.8417932021785</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N42" t="n">
-        <v>1344.266747951537</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O42" t="n">
-        <v>1896.176478190824</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P42" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q42" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>707.672526468518</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C43" t="n">
-        <v>538.7363435406111</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D43" t="n">
-        <v>388.6197041282753</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E43" t="n">
-        <v>240.7066105458822</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F43" t="n">
-        <v>93.81666304797187</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G43" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S43" t="n">
-        <v>2390.881471216014</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T43" t="n">
-        <v>2171.280006238955</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="U43" t="n">
-        <v>1882.204779583153</v>
+        <v>2273.199413378161</v>
       </c>
       <c r="V43" t="n">
-        <v>1627.520291377266</v>
+        <v>2018.514925172274</v>
       </c>
       <c r="W43" t="n">
-        <v>1338.103121340305</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="X43" t="n">
-        <v>1110.113570442288</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y43" t="n">
-        <v>889.3209912987577</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="44">
@@ -7654,16 +7654,16 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7739,16 +7739,16 @@
         <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>2299.457522348532</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="O45" t="n">
-        <v>2516.421633107662</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P45" t="n">
-        <v>2516.421633107662</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7782,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>707.672526468518</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C46" t="n">
-        <v>538.7363435406111</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D46" t="n">
-        <v>388.6197041282753</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E46" t="n">
-        <v>240.7066105458822</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F46" t="n">
-        <v>93.81666304797187</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G46" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
@@ -7830,28 +7830,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2390.881471216014</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>2171.280006238955</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1882.204779583153</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1627.520291377266</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1338.103121340305</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>1110.113570442288</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y46" t="n">
-        <v>889.3209912987577</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
   </sheetData>
@@ -8057,13 +8057,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
-        <v>370.8403453034592</v>
+        <v>327.4218609627882</v>
       </c>
       <c r="M3" t="n">
         <v>465.7050637499999</v>
@@ -8078,7 +8078,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>90.64146763747121</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8309,13 +8309,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O6" t="n">
-        <v>393.8623192767295</v>
+        <v>274.4264991783519</v>
       </c>
       <c r="P6" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>90.64146763747169</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8452,28 +8452,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>324.1454125711647</v>
+        <v>35.04072454780376</v>
       </c>
       <c r="L8" t="n">
-        <v>312.2066704284449</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M8" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N8" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O8" t="n">
         <v>380.8001812627454</v>
       </c>
       <c r="P8" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
         <v>65.71641987298243</v>
@@ -8534,7 +8534,7 @@
         <v>6.233205181928369</v>
       </c>
       <c r="K9" t="n">
-        <v>21.63976862165688</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
         <v>370.8403453034592</v>
@@ -8543,13 +8543,13 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
-        <v>473.6238973478236</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>393.8623192767295</v>
+        <v>306.1979795936941</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
@@ -23415,22 +23415,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>142.9753202488376</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -23469,13 +23469,13 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>99.76050189075474</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23484,7 +23484,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23652,25 +23652,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>0.5874149221290565</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>77.81244489841437</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -23703,7 +23703,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23715,7 +23715,7 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23892,22 +23892,22 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>72.11969353038613</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -23937,7 +23937,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -23952,10 +23952,10 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>186.0089474405555</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -24129,13 +24129,13 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -24144,7 +24144,7 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0.3575234924705342</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -24174,7 +24174,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24183,16 +24183,16 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>116.6691671648111</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24369,22 +24369,22 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,7 +24411,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24429,10 +24429,10 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>49.43558426092559</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24612,13 +24612,13 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>71.22040037418695</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
         <v>81.26583631856553</v>
@@ -24648,16 +24648,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>84.77391660561992</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24840,7 +24840,7 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>72.11969353038617</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
@@ -24888,7 +24888,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>72.11969353038577</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -25080,19 +25080,19 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>146.8157004124962</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -25125,7 +25125,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25134,13 +25134,13 @@
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>145.8014946027475</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -25326,10 +25326,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>57.22910392194223</v>
       </c>
       <c r="H37" t="n">
-        <v>57.2291039219412</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>81.26583631856553</v>
@@ -25551,19 +25551,19 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>65.54986409393069</v>
       </c>
       <c r="H40" t="n">
         <v>140.2947128462239</v>
@@ -25599,7 +25599,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>44.73700564187229</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25800,13 +25800,13 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,16 +25833,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
-        <v>125.5054897610399</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>114.1584408891656</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -26025,25 +26025,25 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,10 +26070,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>125.5054897610404</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>731311.4914411042</v>
+        <v>731311.4914411041</v>
       </c>
     </row>
     <row r="11">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>731311.4914411042</v>
+        <v>731311.4914411041</v>
       </c>
     </row>
     <row r="14">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>731311.4914411041</v>
+        <v>731311.4914411042</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>731311.4914411041</v>
+        <v>731311.4914411042</v>
       </c>
     </row>
   </sheetData>
@@ -26313,40 +26313,40 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>697885.5043846408</v>
+        <v>697885.5043846411</v>
       </c>
       <c r="C2" t="n">
-        <v>697885.5043846413</v>
+        <v>697885.5043846412</v>
       </c>
       <c r="D2" t="n">
-        <v>697885.5043846407</v>
+        <v>697885.5043846406</v>
       </c>
       <c r="E2" t="n">
+        <v>686074.6097365057</v>
+      </c>
+      <c r="F2" t="n">
+        <v>686074.6097365055</v>
+      </c>
+      <c r="G2" t="n">
+        <v>686074.6097365057</v>
+      </c>
+      <c r="H2" t="n">
         <v>686074.6097365054</v>
       </c>
-      <c r="F2" t="n">
-        <v>686074.6097365052</v>
-      </c>
-      <c r="G2" t="n">
+      <c r="I2" t="n">
+        <v>686074.6097365057</v>
+      </c>
+      <c r="J2" t="n">
+        <v>686074.6097365058</v>
+      </c>
+      <c r="K2" t="n">
+        <v>686074.6097365057</v>
+      </c>
+      <c r="L2" t="n">
         <v>686074.6097365055</v>
       </c>
-      <c r="H2" t="n">
-        <v>686074.6097365055</v>
-      </c>
-      <c r="I2" t="n">
+      <c r="M2" t="n">
         <v>686074.6097365058</v>
-      </c>
-      <c r="J2" t="n">
-        <v>686074.6097365055</v>
-      </c>
-      <c r="K2" t="n">
-        <v>686074.6097365058</v>
-      </c>
-      <c r="L2" t="n">
-        <v>686074.6097365058</v>
-      </c>
-      <c r="M2" t="n">
-        <v>686074.6097365055</v>
       </c>
       <c r="N2" t="n">
         <v>686074.6097365055</v>
@@ -26365,16 +26365,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145444</v>
+        <v>589967.8792145445</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>184756.2785481117</v>
+        <v>184756.2785481116</v>
       </c>
       <c r="E3" t="n">
-        <v>771052.6913808064</v>
+        <v>771052.6913808065</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26398,13 +26398,13 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>124208.5107080585</v>
+        <v>124208.5107080586</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>1.540129233035259e-10</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26426,13 +26426,13 @@
         <v>176266.9759012794</v>
       </c>
       <c r="E4" t="n">
-        <v>5677.536566682786</v>
+        <v>5677.536566682705</v>
       </c>
       <c r="F4" t="n">
-        <v>5677.536566682786</v>
+        <v>5677.536566682745</v>
       </c>
       <c r="G4" t="n">
-        <v>5677.536566682775</v>
+        <v>5677.536566682744</v>
       </c>
       <c r="H4" t="n">
         <v>5677.536566682745</v>
@@ -26441,10 +26441,10 @@
         <v>5677.536566682745</v>
       </c>
       <c r="J4" t="n">
+        <v>5677.536566682745</v>
+      </c>
+      <c r="K4" t="n">
         <v>5677.536566682744</v>
-      </c>
-      <c r="K4" t="n">
-        <v>5677.536566682745</v>
       </c>
       <c r="L4" t="n">
         <v>5677.536566682745</v>
@@ -26453,13 +26453,13 @@
         <v>5677.536566682745</v>
       </c>
       <c r="N4" t="n">
-        <v>5677.536566682745</v>
+        <v>5677.536566682744</v>
       </c>
       <c r="O4" t="n">
-        <v>5677.536566682745</v>
+        <v>5677.536566682744</v>
       </c>
       <c r="P4" t="n">
-        <v>5677.536566682745</v>
+        <v>5677.536566682744</v>
       </c>
     </row>
     <row r="5">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-184863.8683563464</v>
+        <v>-184863.8683563462</v>
       </c>
       <c r="C6" t="n">
-        <v>405104.0108581985</v>
+        <v>405104.0108581984</v>
       </c>
       <c r="D6" t="n">
         <v>249300.2047644029</v>
       </c>
       <c r="E6" t="n">
-        <v>-191778.1480348909</v>
+        <v>-192125.5272892476</v>
       </c>
       <c r="F6" t="n">
-        <v>579274.5433459154</v>
+        <v>578927.1640915588</v>
       </c>
       <c r="G6" t="n">
-        <v>579274.5433459156</v>
+        <v>578927.1640915589</v>
       </c>
       <c r="H6" t="n">
-        <v>579274.5433459156</v>
+        <v>578927.1640915587</v>
       </c>
       <c r="I6" t="n">
-        <v>579274.5433459159</v>
+        <v>578927.1640915589</v>
       </c>
       <c r="J6" t="n">
-        <v>402851.3241533227</v>
+        <v>402503.9448989659</v>
       </c>
       <c r="K6" t="n">
-        <v>579274.543345916</v>
+        <v>578927.1640915589</v>
       </c>
       <c r="L6" t="n">
-        <v>579274.543345916</v>
+        <v>578927.1640915588</v>
       </c>
       <c r="M6" t="n">
-        <v>455066.0326378572</v>
+        <v>454718.6533835004</v>
       </c>
       <c r="N6" t="n">
-        <v>579274.5433459157</v>
+        <v>578927.1640915588</v>
       </c>
       <c r="O6" t="n">
-        <v>579274.543345916</v>
+        <v>578927.1640915591</v>
       </c>
       <c r="P6" t="n">
-        <v>579274.5433459161</v>
+        <v>578927.164091559</v>
       </c>
     </row>
   </sheetData>
@@ -26694,19 +26694,19 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -26737,10 +26737,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="D3" t="n">
         <v>593.4761003380651</v>
@@ -26798,7 +26798,7 @@
         <v>674.2872727545556</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="F4" t="n">
         <v>1172.708288099648</v>
@@ -26916,7 +26916,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26959,13 +26959,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>215.7324361209785</v>
+        <v>215.7324361209784</v>
       </c>
       <c r="E3" t="n">
         <v>774.4994000036087</v>
@@ -26998,7 +26998,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>498.4210153450928</v>
+        <v>498.421015345093</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>498.4210153450928</v>
+        <v>498.421015345093</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27153,7 +27153,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>498.4210153450928</v>
+        <v>498.421015345093</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,25 +27378,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>43.98398258378785</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>334.5495417479062</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
         <v>151.9313162448613</v>
@@ -27426,28 +27426,28 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27542,7 +27542,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>125.6297823812639</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -27560,7 +27560,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27584,7 +27584,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>123.6795013432096</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
@@ -27615,28 +27615,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>33.70578886093691</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27663,25 +27663,25 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>228.5527875315728</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27773,19 +27773,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>120.1051426060686</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>167.3098022590509</v>
@@ -27794,10 +27794,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853701</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27818,16 +27818,16 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
         <v>286.2818742419777</v>
@@ -27839,7 +27839,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>171.2340993700035</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27852,13 +27852,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>338.6709431590106</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -27867,13 +27867,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
         <v>315.0408840752156</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>118.4960408938903</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27903,16 +27903,16 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>148.7127423913841</v>
+        <v>154.6528871281402</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>212.651863114966</v>
       </c>
       <c r="U8" t="n">
         <v>251.1547862223006</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -28013,28 +28013,28 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>166.9207765545704</v>
       </c>
       <c r="H10" t="n">
-        <v>152.7120966692326</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>123.266557879417</v>
+        <v>14.82366444125853</v>
       </c>
       <c r="J10" t="n">
-        <v>7.749574772422504</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28073,7 +28073,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -28089,25 +28089,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -28140,25 +28140,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>6.496390726949487e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -28326,25 +28326,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -28377,25 +28377,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>6.496390726949487e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -28566,22 +28566,22 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -28614,10 +28614,10 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
@@ -28629,10 +28629,10 @@
         <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>6.496390726949487e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -31047,19 +31047,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L2" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31074,13 +31074,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31120,16 +31120,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I3" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31147,22 +31147,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,16 +31199,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31223,16 +31223,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31278,46 +31278,46 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H5" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L5" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P5" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q5" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31357,16 +31357,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I6" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31384,22 +31384,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S6" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,19 +31436,19 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I7" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L7" t="n">
         <v>101.2724571246924</v>
@@ -31460,22 +31460,22 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U7" t="n">
         <v>0.0371551145131561</v>
@@ -31837,7 +31837,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
         <v>277.9958514420755</v>
@@ -31846,25 +31846,25 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>272.7569329364655</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>131.3417120833333</v>
+        <v>463.9598929192557</v>
       </c>
       <c r="O12" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
         <v>54.65449286742438</v>
@@ -32074,31 +32074,31 @@
         <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862121</v>
+        <v>650.2626573149953</v>
       </c>
       <c r="N15" t="n">
-        <v>697.0074482175629</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O15" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
         <v>561.8765786214698</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
@@ -32311,7 +32311,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
         <v>277.9958514420755</v>
@@ -32320,13 +32320,13 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>339.3493584601592</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>463.9598929192557</v>
       </c>
       <c r="O18" t="n">
         <v>700.0808204437243</v>
@@ -32554,13 +32554,13 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862121</v>
+        <v>444.2274915982894</v>
       </c>
       <c r="N21" t="n">
         <v>765.2790490071785</v>
@@ -32569,7 +32569,7 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
-        <v>169.9530009943068</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
         <v>139.9817740860215</v>
@@ -32785,7 +32785,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
         <v>277.9958514420755</v>
@@ -32797,13 +32797,13 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862121</v>
+        <v>444.2274915982894</v>
       </c>
       <c r="N24" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P24" t="n">
         <v>133.9744074143302</v>
@@ -33022,7 +33022,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
         <v>277.9958514420755</v>
@@ -33031,7 +33031,7 @@
         <v>137.841438974359</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473072</v>
+        <v>568.8264345569168</v>
       </c>
       <c r="M27" t="n">
         <v>745.5466476862121</v>
@@ -33040,13 +33040,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P27" t="n">
-        <v>171.7382405950817</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q27" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R27" t="n">
         <v>145.679503963964</v>
@@ -33259,31 +33259,31 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>570.6116741576916</v>
+        <v>543.5992845760902</v>
       </c>
       <c r="M30" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O30" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
         <v>561.8765786214698</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
         <v>145.679503963964</v>
@@ -33496,31 +33496,31 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862121</v>
+        <v>444.2274915982894</v>
       </c>
       <c r="N33" t="n">
-        <v>639.8517673857162</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
         <v>145.679503963964</v>
@@ -33654,7 +33654,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J35" t="n">
         <v>466.7546155663283</v>
@@ -33733,22 +33733,22 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>543.5992845760902</v>
       </c>
       <c r="M36" t="n">
-        <v>620.1193660647499</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O36" t="n">
         <v>700.0808204437243</v>
@@ -33757,7 +33757,7 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
         <v>145.679503963964</v>
@@ -33970,22 +33970,22 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>543.5992845760902</v>
       </c>
       <c r="M39" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>639.8517673857162</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O39" t="n">
         <v>700.0808204437243</v>
@@ -33994,7 +33994,7 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
         <v>145.679503963964</v>
@@ -34122,7 +34122,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
@@ -34134,31 +34134,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S41" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34201,49 +34201,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H42" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
         <v>99.52238</v>
       </c>
       <c r="J42" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K42" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862122</v>
+        <v>233.9389431948335</v>
       </c>
       <c r="N42" t="n">
-        <v>639.8517673857158</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R42" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34283,25 +34283,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34310,19 +34310,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34459,19 +34459,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071785</v>
+        <v>357.9244589488886</v>
       </c>
       <c r="O45" t="n">
-        <v>361.7519118779092</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P45" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q45" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -34698,19 +34698,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K2" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34777,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
       </c>
       <c r="L3" t="n">
-        <v>408.7029475713857</v>
+        <v>365.2844632307148</v>
       </c>
       <c r="M3" t="n">
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q3" t="n">
-        <v>54.37527471535621</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34935,25 +34935,25 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K5" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O5" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P5" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q5" t="n">
         <v>153.9975062898689</v>
@@ -35014,7 +35014,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.01733575770689</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35026,16 +35026,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O6" t="n">
-        <v>444.5817404245897</v>
+        <v>325.1459203262123</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q6" t="n">
-        <v>54.37527471535667</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35096,7 +35096,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L7" t="n">
         <v>128.8624823850085</v>
@@ -35111,7 +35111,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35172,28 +35172,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.5453525391276</v>
+        <v>21.44873736705384</v>
       </c>
       <c r="K8" t="n">
-        <v>407.5425384040863</v>
+        <v>118.4378503807253</v>
       </c>
       <c r="L8" t="n">
-        <v>452.9426864297107</v>
+        <v>558.3972305517163</v>
       </c>
       <c r="M8" t="n">
-        <v>188.5852654802098</v>
+        <v>638.0987989730422</v>
       </c>
       <c r="N8" t="n">
-        <v>196.2971847393761</v>
+        <v>633.6441091513602</v>
       </c>
       <c r="O8" t="n">
         <v>552.6880856233105</v>
       </c>
       <c r="P8" t="n">
-        <v>433.6515619588832</v>
+        <v>111.8528537874005</v>
       </c>
       <c r="Q8" t="n">
-        <v>247.6524856312129</v>
+        <v>35.33749497130819</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35254,7 +35254,7 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>89.93049555434075</v>
+        <v>332.7559639452625</v>
       </c>
       <c r="L9" t="n">
         <v>509.4561008748672</v>
@@ -35263,13 +35263,13 @@
         <v>647.0155045122269</v>
       </c>
       <c r="N9" t="n">
-        <v>674.2872727545556</v>
+        <v>200.663375406732</v>
       </c>
       <c r="O9" t="n">
-        <v>554.9858674269929</v>
+        <v>467.3215277439574</v>
       </c>
       <c r="P9" t="n">
-        <v>109.7875025528271</v>
+        <v>428.2502711927643</v>
       </c>
       <c r="Q9" t="n">
         <v>22.96660727472423</v>
@@ -35485,7 +35485,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J12" t="n">
         <v>151.1582247754088</v>
@@ -35494,25 +35494,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>134.2025531565913</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>332.6181808359224</v>
       </c>
       <c r="O12" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35655,7 +35655,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902952</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
         <v>751.8584478193516</v>
@@ -35722,31 +35722,31 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J15" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641938</v>
+        <v>508.128623392977</v>
       </c>
       <c r="N15" t="n">
-        <v>565.6657361342296</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
         <v>427.9021712071395</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35901,7 +35901,7 @@
         <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683816</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
         <v>371.5675334924728</v>
@@ -35959,7 +35959,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
@@ -35968,13 +35968,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>200.7949786802851</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>332.6181808359224</v>
       </c>
       <c r="O18" t="n">
         <v>557.4845759992799</v>
@@ -36202,13 +36202,13 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
-        <v>603.4126137641938</v>
+        <v>302.093457676271</v>
       </c>
       <c r="N21" t="n">
         <v>633.9373369238452</v>
@@ -36217,7 +36217,7 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
-        <v>35.9785935799765</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -36381,7 +36381,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,7 +36433,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
@@ -36445,13 +36445,13 @@
         <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>603.4126137641938</v>
+        <v>302.093457676271</v>
       </c>
       <c r="N24" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>257.9506595121318</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -36670,7 +36670,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
@@ -36679,7 +36679,7 @@
         <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>500.328895167433</v>
+        <v>430.2720547770426</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
@@ -36688,13 +36688,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>37.7638331807514</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36852,7 +36852,7 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R29" t="n">
         <v>129.8660843902404</v>
@@ -36907,31 +36907,31 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>432.0572943778175</v>
+        <v>405.0449047962161</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
         <v>427.9021712071395</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37092,7 +37092,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37144,31 +37144,31 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>603.4126137641938</v>
+        <v>302.093457676271</v>
       </c>
       <c r="N33" t="n">
-        <v>508.510055302383</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37302,10 +37302,10 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J35" t="n">
-        <v>285.7087110396425</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
         <v>479.454324036777</v>
@@ -37381,22 +37381,22 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>405.0449047962161</v>
       </c>
       <c r="M36" t="n">
-        <v>477.9853321427316</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
         <v>557.4845759992799</v>
@@ -37405,7 +37405,7 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37548,7 +37548,7 @@
         <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462693</v>
       </c>
       <c r="M38" t="n">
         <v>735.3001107902948</v>
@@ -37618,22 +37618,22 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>405.0449047962161</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>508.510055302383</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
         <v>557.4845759992799</v>
@@ -37642,7 +37642,7 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37776,34 +37776,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L41" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37858,31 +37858,31 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
-        <v>603.4126137641938</v>
+        <v>91.80490927281522</v>
       </c>
       <c r="N42" t="n">
-        <v>508.5100553023825</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37937,22 +37937,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K43" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38107,19 +38107,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238452</v>
+        <v>226.5827468655553</v>
       </c>
       <c r="O45" t="n">
-        <v>219.1556674334648</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_8_34.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_8_34.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3065597.017418166</v>
+        <v>3067357.547720953</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283185</v>
+        <v>416855.1052283184</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8662070.799216902</v>
+        <v>8662070.799216904</v>
       </c>
     </row>
     <row r="11">
@@ -664,7 +664,7 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
@@ -673,13 +673,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>79.2346282728888</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>268.2021836279154</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -706,7 +706,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
         <v>174.4157128089715</v>
@@ -822,7 +822,7 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>22.98569063694849</v>
+        <v>22.98569063694827</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
@@ -898,7 +898,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -946,22 +946,22 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>27.77238941128158</v>
       </c>
       <c r="U5" t="n">
-        <v>22.67137997671646</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -995,7 +995,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1053,13 +1053,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>59.72683757586869</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
@@ -1077,7 +1077,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1098,13 +1098,13 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>154.6012305690994</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -1132,16 +1132,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>16.01209846167234</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
@@ -1186,7 +1186,7 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>27.40542020321515</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -1311,7 +1311,7 @@
         <v>152.7120966692326</v>
       </c>
       <c r="I10" t="n">
-        <v>108.4428934381584</v>
+        <v>108.4428934381585</v>
       </c>
       <c r="J10" t="n">
         <v>17.69584188176898</v>
@@ -1375,7 +1375,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.6830416206838</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
         <v>381.9303700722618</v>
@@ -1387,7 +1387,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
-        <v>283.1540821444144</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1432,7 +1432,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>349.240968717412</v>
       </c>
       <c r="X11" t="n">
         <v>369.731100678469</v>
@@ -1530,19 +1530,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
         <v>140.2947128462239</v>
@@ -1578,16 +1578,16 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
-        <v>152.3771414330733</v>
+        <v>217.0250037474722</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
@@ -1612,7 +1612,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>354.6830416206824</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
         <v>381.9303700722618</v>
@@ -1663,7 +1663,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1770,22 +1770,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.0280580960833</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>99.76859704213609</v>
       </c>
       <c r="H16" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -2019,10 +2019,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>68.17501931583776</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2095,7 +2095,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H20" t="n">
         <v>283.1540821444137</v>
@@ -2137,7 +2137,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U20" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881275</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -2241,7 +2241,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -2250,16 +2250,16 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428169</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2295,7 +2295,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>169.5153072244331</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2493,7 +2493,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428169</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>9.146142788179482</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2724,13 +2724,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>74.20064764874429</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2760,16 +2760,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>253.2918698186439</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2955,22 +2955,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3000,10 +3000,10 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>108.9065924712588</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>217.4054503272883</v>
+        <v>91.89996056624796</v>
       </c>
       <c r="U31" t="n">
         <v>286.1844743892441</v>
@@ -3186,25 +3186,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>66.85274231757755</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>1.799772605716168</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
         <v>81.26583631856553</v>
@@ -3234,10 +3234,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>217.4054503272883</v>
@@ -3255,7 +3255,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3334,7 +3334,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560531</v>
       </c>
     </row>
     <row r="36">
@@ -3438,13 +3438,13 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>108.2950343703266</v>
+        <v>27.02919805176109</v>
       </c>
       <c r="H37" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3559,7 +3559,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U38" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -3669,13 +3669,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>99.97427419833815</v>
+        <v>19.91555826189057</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3906,10 +3906,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>165.5241382922688</v>
@@ -3945,19 +3945,19 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>182.4326803923963</v>
       </c>
       <c r="U43" t="n">
-        <v>172.0260335000785</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4137,16 +4137,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>28.75188085812005</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>165.5241382922688</v>
@@ -4155,7 +4155,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,16 +4182,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>286.1844743892441</v>
+        <v>172.026033500079</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4312,19 +4312,19 @@
         <v>1289.01781586839</v>
       </c>
       <c r="D2" t="n">
-        <v>930.7521172616393</v>
+        <v>1289.01781586839</v>
       </c>
       <c r="E2" t="n">
-        <v>544.963864663395</v>
+        <v>903.2295632701455</v>
       </c>
       <c r="F2" t="n">
-        <v>133.9779598737875</v>
+        <v>492.2436584805379</v>
       </c>
       <c r="G2" t="n">
-        <v>53.94298182036445</v>
+        <v>478.3202544191288</v>
       </c>
       <c r="H2" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
@@ -4400,7 +4400,7 @@
         <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H3" t="n">
         <v>115.9856282673424</v>
@@ -4412,13 +4412,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="K3" t="n">
-        <v>309.190302261463</v>
+        <v>266.206002764199</v>
       </c>
       <c r="L3" t="n">
-        <v>670.8219208598706</v>
+        <v>670.8219208598708</v>
       </c>
       <c r="M3" t="n">
-        <v>1194.968834417901</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N3" t="n">
         <v>1748.695370517453</v>
@@ -4433,7 +4433,7 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S3" t="n">
         <v>2488.762748073963</v>
@@ -4464,10 +4464,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>698.7120650600564</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="C4" t="n">
-        <v>698.7120650600564</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="D4" t="n">
         <v>675.4941957298054</v>
@@ -4494,46 +4494,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M4" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>698.7120650600564</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R4" t="n">
-        <v>698.7120650600564</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="S4" t="n">
-        <v>698.7120650600564</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="T4" t="n">
-        <v>698.7120650600564</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="U4" t="n">
-        <v>698.7120650600564</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="V4" t="n">
-        <v>698.7120650600564</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="W4" t="n">
-        <v>698.7120650600564</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="X4" t="n">
-        <v>698.7120650600564</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="Y4" t="n">
-        <v>698.7120650600564</v>
+        <v>698.7120650600561</v>
       </c>
     </row>
     <row r="5">
@@ -4543,7 +4543,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>818.8658378359718</v>
+        <v>1187.828354776384</v>
       </c>
       <c r="C5" t="n">
         <v>818.8658378359718</v>
@@ -4552,34 +4552,34 @@
         <v>460.6001392292213</v>
       </c>
       <c r="E5" t="n">
-        <v>74.81188663097703</v>
+        <v>74.81188663097701</v>
       </c>
       <c r="F5" t="n">
-        <v>67.86638588177355</v>
+        <v>67.86638588177354</v>
       </c>
       <c r="G5" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H5" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I5" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J5" t="n">
         <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224077</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4594,25 +4594,25 @@
         <v>2697.149091018222</v>
       </c>
       <c r="S5" t="n">
-        <v>2520.971603332393</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T5" t="n">
-        <v>2302.336936304455</v>
+        <v>2669.096172420968</v>
       </c>
       <c r="U5" t="n">
-        <v>2279.43655248959</v>
+        <v>2669.096172420968</v>
       </c>
       <c r="V5" t="n">
-        <v>1948.373665146019</v>
+        <v>2338.033285077397</v>
       </c>
       <c r="W5" t="n">
-        <v>1595.605009875905</v>
+        <v>2338.033285077397</v>
       </c>
       <c r="X5" t="n">
-        <v>1595.605009875905</v>
+        <v>1964.567526816317</v>
       </c>
       <c r="Y5" t="n">
-        <v>1205.465677900094</v>
+        <v>1574.428194840505</v>
       </c>
     </row>
     <row r="6">
@@ -4643,22 +4643,22 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J6" t="n">
         <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>384.4474646615928</v>
+        <v>266.2060027641994</v>
       </c>
       <c r="L6" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598713</v>
       </c>
       <c r="M6" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N6" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O6" t="n">
         <v>2188.831293537797</v>
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>667.7988452409105</v>
+        <v>394.4025473335336</v>
       </c>
       <c r="C7" t="n">
-        <v>498.8626623130036</v>
+        <v>394.4025473335336</v>
       </c>
       <c r="D7" t="n">
-        <v>348.7460229006679</v>
+        <v>394.4025473335336</v>
       </c>
       <c r="E7" t="n">
-        <v>200.8329293182748</v>
+        <v>246.4894537511404</v>
       </c>
       <c r="F7" t="n">
-        <v>53.94298182036445</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="G7" t="n">
-        <v>53.94298182036445</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="H7" t="n">
-        <v>53.94298182036445</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036445</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="J7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K7" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M7" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064344</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064344</v>
+        <v>394.4025473335336</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064344</v>
+        <v>394.4025473335336</v>
       </c>
       <c r="U7" t="n">
-        <v>728.1289842064344</v>
+        <v>394.4025473335336</v>
       </c>
       <c r="V7" t="n">
-        <v>728.1289842064344</v>
+        <v>394.4025473335336</v>
       </c>
       <c r="W7" t="n">
-        <v>728.1289842064344</v>
+        <v>394.4025473335336</v>
       </c>
       <c r="X7" t="n">
-        <v>728.1289842064344</v>
+        <v>394.4025473335336</v>
       </c>
       <c r="Y7" t="n">
-        <v>728.1289842064344</v>
+        <v>394.4025473335336</v>
       </c>
     </row>
     <row r="8">
@@ -4780,46 +4780,46 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>863.1126181035243</v>
+        <v>1222.030215538135</v>
       </c>
       <c r="C8" t="n">
-        <v>494.1501011631125</v>
+        <v>1222.030215538135</v>
       </c>
       <c r="D8" t="n">
-        <v>477.9762643331405</v>
+        <v>863.7645169313847</v>
       </c>
       <c r="E8" t="n">
         <v>477.9762643331405</v>
       </c>
       <c r="F8" t="n">
-        <v>66.99035954353293</v>
+        <v>66.99035954353292</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J8" t="n">
-        <v>75.17723181374775</v>
+        <v>75.17723181374774</v>
       </c>
       <c r="K8" t="n">
-        <v>192.4307036906658</v>
+        <v>192.4307036906654</v>
       </c>
       <c r="L8" t="n">
-        <v>745.243961936865</v>
+        <v>745.2439619368646</v>
       </c>
       <c r="M8" t="n">
-        <v>1376.961772920177</v>
+        <v>1376.961772920176</v>
       </c>
       <c r="N8" t="n">
         <v>2004.269440980023</v>
       </c>
       <c r="O8" t="n">
-        <v>2551.430645747101</v>
+        <v>2551.4306457471</v>
       </c>
       <c r="P8" t="n">
         <v>2662.164970996627</v>
@@ -4834,22 +4834,22 @@
         <v>2697.149091018222</v>
       </c>
       <c r="T8" t="n">
-        <v>2697.149091018222</v>
+        <v>2669.466848388712</v>
       </c>
       <c r="U8" t="n">
-        <v>2697.149091018222</v>
+        <v>2669.466848388712</v>
       </c>
       <c r="V8" t="n">
-        <v>2366.086203674652</v>
+        <v>2338.403961045141</v>
       </c>
       <c r="W8" t="n">
-        <v>2013.317548404538</v>
+        <v>1985.635305775027</v>
       </c>
       <c r="X8" t="n">
-        <v>1639.851790143458</v>
+        <v>1612.169547513947</v>
       </c>
       <c r="Y8" t="n">
-        <v>1249.712458167646</v>
+        <v>1222.030215538135</v>
       </c>
     </row>
     <row r="9">
@@ -4874,34 +4874,34 @@
         <v>338.2052143260214</v>
       </c>
       <c r="G9" t="n">
-        <v>200.7638166852434</v>
+        <v>200.7638166852433</v>
       </c>
       <c r="H9" t="n">
-        <v>99.84783883004796</v>
+        <v>99.84783883004795</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036445</v>
+        <v>172.6022336772601</v>
       </c>
       <c r="K9" t="n">
-        <v>383.3713861261743</v>
+        <v>302.1295994110957</v>
       </c>
       <c r="L9" t="n">
-        <v>887.7329259922928</v>
+        <v>439.3591974267897</v>
       </c>
       <c r="M9" t="n">
-        <v>1528.278275459397</v>
+        <v>1079.904546893894</v>
       </c>
       <c r="N9" t="n">
-        <v>1726.935017112062</v>
+        <v>1747.448946920904</v>
       </c>
       <c r="O9" t="n">
-        <v>2189.58332957858</v>
+        <v>2296.884955673627</v>
       </c>
       <c r="P9" t="n">
-        <v>2613.551098059417</v>
+        <v>2405.574583200926</v>
       </c>
       <c r="Q9" t="n">
         <v>2636.288039261394</v>
@@ -4959,10 +4959,10 @@
         <v>181.3558457798871</v>
       </c>
       <c r="I10" t="n">
-        <v>71.81756957972706</v>
+        <v>71.81756957972705</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K10" t="n">
         <v>154.9909114159743</v>
@@ -5017,52 +5017,52 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551876</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611465</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E11" t="n">
         <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168618</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362693</v>
+        <v>379.8308874362685</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192684</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111726</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075825</v>
+        <v>852.8523611075808</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.61155333239</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014781</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355939</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068012</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P11" t="n">
         <v>4194.413870694709</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R11" t="n">
         <v>4690.833152398594</v>
@@ -5074,19 +5074,19 @@
         <v>4405.252601474785</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466575</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123004</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.98095685289</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.51519859181</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615998</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="12">
@@ -5105,7 +5105,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5114,16 +5114,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J12" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K12" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L12" t="n">
         <v>1074.481071167373</v>
@@ -5132,7 +5132,7 @@
         <v>1671.859558793925</v>
       </c>
       <c r="N12" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O12" t="n">
         <v>2553.061288060775</v>
@@ -5175,28 +5175,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>614.6217844681064</v>
+        <v>951.777212765616</v>
       </c>
       <c r="C13" t="n">
-        <v>614.6217844681064</v>
+        <v>782.8410298377091</v>
       </c>
       <c r="D13" t="n">
-        <v>464.5051450557706</v>
+        <v>632.7243904253734</v>
       </c>
       <c r="E13" t="n">
-        <v>464.5051450557706</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F13" t="n">
-        <v>317.6151975578603</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578603</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H13" t="n">
         <v>175.9033664000583</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
         <v>174.0526814782957</v>
@@ -5226,25 +5226,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487567</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510508</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854706</v>
+        <v>2090.842153176861</v>
       </c>
       <c r="V13" t="n">
-        <v>1534.469549376854</v>
+        <v>1871.624977674364</v>
       </c>
       <c r="W13" t="n">
-        <v>1245.052379339894</v>
+        <v>1582.207807637403</v>
       </c>
       <c r="X13" t="n">
-        <v>1017.062828441876</v>
+        <v>1354.218256739386</v>
       </c>
       <c r="Y13" t="n">
-        <v>796.2702492983461</v>
+        <v>1133.425677595856</v>
       </c>
     </row>
     <row r="14">
@@ -5275,13 +5275,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
@@ -5296,7 +5296,7 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
         <v>4562.265728852255</v>
@@ -5314,13 +5314,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5366,13 +5366,13 @@
         <v>1074.481071167373</v>
       </c>
       <c r="M15" t="n">
-        <v>1577.52840832642</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N15" t="n">
-        <v>1577.52840832642</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="O15" t="n">
-        <v>2129.438138565707</v>
+        <v>2223.769289033212</v>
       </c>
       <c r="P15" t="n">
         <v>2553.061288060775</v>
@@ -5418,19 +5418,19 @@
         <v>634.334587849125</v>
       </c>
       <c r="D16" t="n">
-        <v>484.8112968429803</v>
+        <v>484.2179484367892</v>
       </c>
       <c r="E16" t="n">
-        <v>484.8112968429803</v>
+        <v>336.3048548543961</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429803</v>
+        <v>336.3048548543961</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797187</v>
@@ -5491,34 +5491,34 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H17" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
@@ -5548,19 +5548,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y17" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="18">
@@ -5606,7 +5606,7 @@
         <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O18" t="n">
         <v>2553.061288060775</v>
@@ -5649,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>580.8993044876688</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C19" t="n">
-        <v>411.9631215597619</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D19" t="n">
-        <v>411.9631215597619</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E19" t="n">
-        <v>411.9631215597619</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F19" t="n">
-        <v>411.9631215597619</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G19" t="n">
-        <v>244.7670222746419</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
@@ -5697,28 +5697,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>983.3403484614387</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y19" t="n">
-        <v>762.5477693179085</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="20">
@@ -5734,22 +5734,22 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J20" t="n">
         <v>378.1925803111715</v>
@@ -5767,34 +5767,34 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R20" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U20" t="n">
         <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5825,10 +5825,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J21" t="n">
         <v>245.2306927803937</v>
@@ -5840,10 +5840,10 @@
         <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>1373.553594266881</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O21" t="n">
         <v>2553.061288060775</v>
@@ -5886,28 +5886,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>631.7012443408906</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C22" t="n">
-        <v>631.7012443408906</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D22" t="n">
-        <v>631.7012443408906</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E22" t="n">
-        <v>631.7012443408906</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F22" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578602</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J22" t="n">
         <v>174.0526814782957</v>
@@ -5943,19 +5943,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1806.233497455525</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1551.549009249638</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1262.131839212678</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>1034.14228831466</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y22" t="n">
-        <v>813.3497091711304</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="23">
@@ -5983,10 +5983,10 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
         <v>378.1925803111715</v>
@@ -6062,10 +6062,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J24" t="n">
         <v>245.2306927803937</v>
@@ -6077,10 +6077,10 @@
         <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>1373.553594266881</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O24" t="n">
         <v>2553.061288060775</v>
@@ -6123,28 +6123,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D25" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E25" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F25" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G25" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J25" t="n">
         <v>174.0526814782957</v>
@@ -6171,28 +6171,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6226,7 +6226,7 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
         <v>852.8523611075807</v>
@@ -6235,13 +6235,13 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
@@ -6360,22 +6360,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>802.9288273958734</v>
+        <v>1016.58045691144</v>
       </c>
       <c r="C28" t="n">
-        <v>633.9926444679666</v>
+        <v>847.6442739835331</v>
       </c>
       <c r="D28" t="n">
-        <v>483.8760050556308</v>
+        <v>697.5276345711974</v>
       </c>
       <c r="E28" t="n">
-        <v>335.9629114732377</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F28" t="n">
-        <v>261.0127623330919</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G28" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H28" t="n">
         <v>93.81666304797187</v>
@@ -6408,28 +6408,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510508</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="U28" t="n">
-        <v>1977.461080510508</v>
+        <v>2191.112710026075</v>
       </c>
       <c r="V28" t="n">
-        <v>1722.776592304621</v>
+        <v>1936.428221820188</v>
       </c>
       <c r="W28" t="n">
-        <v>1433.359422267661</v>
+        <v>1647.011051783227</v>
       </c>
       <c r="X28" t="n">
-        <v>1205.369871369643</v>
+        <v>1419.02150088521</v>
       </c>
       <c r="Y28" t="n">
-        <v>984.5772922261132</v>
+        <v>1198.22892174168</v>
       </c>
     </row>
     <row r="29">
@@ -6454,7 +6454,7 @@
         <v>793.7736536168613</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H29" t="n">
         <v>93.81666304797187</v>
@@ -6597,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>653.7474797708871</v>
+        <v>707.672526468518</v>
       </c>
       <c r="C31" t="n">
-        <v>484.8112968429803</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D31" t="n">
-        <v>484.8112968429803</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E31" t="n">
-        <v>484.8112968429803</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F31" t="n">
-        <v>484.8112968429803</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G31" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
@@ -6648,25 +6648,25 @@
         <v>2446.96308358026</v>
       </c>
       <c r="S31" t="n">
-        <v>2336.956424518383</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T31" t="n">
-        <v>2117.354959541324</v>
+        <v>2171.280006238955</v>
       </c>
       <c r="U31" t="n">
-        <v>1828.279732885522</v>
+        <v>1882.204779583153</v>
       </c>
       <c r="V31" t="n">
-        <v>1573.595244679635</v>
+        <v>1627.520291377266</v>
       </c>
       <c r="W31" t="n">
-        <v>1284.178074642674</v>
+        <v>1338.103121340305</v>
       </c>
       <c r="X31" t="n">
-        <v>1056.188523744657</v>
+        <v>1110.113570442288</v>
       </c>
       <c r="Y31" t="n">
-        <v>835.3959446011269</v>
+        <v>889.3209912987577</v>
       </c>
     </row>
     <row r="32">
@@ -6688,10 +6688,10 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H32" t="n">
         <v>93.81666304797187</v>
@@ -6834,22 +6834,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>513.8536007400712</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C34" t="n">
-        <v>344.9174178121643</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D34" t="n">
-        <v>343.0994656851783</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E34" t="n">
-        <v>343.0994656851783</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F34" t="n">
-        <v>343.0994656851783</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G34" t="n">
-        <v>175.9033664000583</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H34" t="n">
         <v>175.9033664000583</v>
@@ -6882,28 +6882,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510508</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U34" t="n">
-        <v>1688.385853854706</v>
+        <v>1938.286391947399</v>
       </c>
       <c r="V34" t="n">
-        <v>1433.701365648819</v>
+        <v>1683.601903741512</v>
       </c>
       <c r="W34" t="n">
-        <v>1144.284195611858</v>
+        <v>1394.184733704551</v>
       </c>
       <c r="X34" t="n">
-        <v>916.2946447138411</v>
+        <v>1166.195182806534</v>
       </c>
       <c r="Y34" t="n">
-        <v>695.5020655703109</v>
+        <v>1166.195182806534</v>
       </c>
     </row>
     <row r="35">
@@ -6934,13 +6934,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J35" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -7022,16 +7022,16 @@
         <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>980.1499206998682</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>1577.52840832642</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>1577.52840832642</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="O36" t="n">
-        <v>2129.438138565707</v>
+        <v>2223.769289033212</v>
       </c>
       <c r="P36" t="n">
         <v>2553.061288060775</v>
@@ -7086,10 +7086,10 @@
         <v>344.9174178121643</v>
       </c>
       <c r="G37" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797187</v>
@@ -7150,19 +7150,19 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
         <v>379.8308874362686</v>
@@ -7171,7 +7171,7 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J38" t="n">
         <v>378.1925803111715</v>
@@ -7180,19 +7180,19 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q38" t="n">
         <v>4562.265728852255</v>
@@ -7207,19 +7207,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="39">
@@ -7259,16 +7259,16 @@
         <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>980.1499206998682</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>1577.52840832642</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>1577.52840832642</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="O39" t="n">
-        <v>2129.438138565707</v>
+        <v>2223.769289033212</v>
       </c>
       <c r="P39" t="n">
         <v>2553.061288060775</v>
@@ -7308,19 +7308,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>513.8536007400712</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C40" t="n">
-        <v>344.9174178121643</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D40" t="n">
-        <v>194.8007783998286</v>
+        <v>261.8464821474262</v>
       </c>
       <c r="E40" t="n">
-        <v>194.8007783998286</v>
+        <v>113.9333885650331</v>
       </c>
       <c r="F40" t="n">
-        <v>194.8007783998286</v>
+        <v>113.9333885650331</v>
       </c>
       <c r="G40" t="n">
         <v>93.81666304797187</v>
@@ -7356,28 +7356,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U40" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V40" t="n">
-        <v>1433.701365648819</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W40" t="n">
-        <v>1144.284195611858</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X40" t="n">
-        <v>916.2946447138411</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y40" t="n">
-        <v>695.5020655703109</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="41">
@@ -7405,28 +7405,28 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111719</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7545,16 +7545,16 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1098.667160263527</v>
+        <v>803.8641191832229</v>
       </c>
       <c r="C43" t="n">
-        <v>929.7309773356195</v>
+        <v>634.927936255316</v>
       </c>
       <c r="D43" t="n">
-        <v>779.6143379232838</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E43" t="n">
-        <v>631.7012443408906</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F43" t="n">
         <v>484.8112968429803</v>
@@ -7593,28 +7593,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>2446.96308358026</v>
+        <v>2012.787110747773</v>
       </c>
       <c r="U43" t="n">
-        <v>2273.199413378161</v>
+        <v>1723.711884091971</v>
       </c>
       <c r="V43" t="n">
-        <v>2018.514925172274</v>
+        <v>1723.711884091971</v>
       </c>
       <c r="W43" t="n">
-        <v>1729.097755135313</v>
+        <v>1434.29471405501</v>
       </c>
       <c r="X43" t="n">
-        <v>1501.108204237296</v>
+        <v>1206.305163156993</v>
       </c>
       <c r="Y43" t="n">
-        <v>1280.315625093766</v>
+        <v>985.5125840134626</v>
       </c>
     </row>
     <row r="44">
@@ -7642,16 +7642,16 @@
         <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J44" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
@@ -7712,7 +7712,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E45" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F45" t="n">
         <v>314.2396613568978</v>
@@ -7721,34 +7721,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H45" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J45" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="K45" t="n">
-        <v>579.1554649516142</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="L45" t="n">
-        <v>1074.481071167373</v>
+        <v>589.1422692637307</v>
       </c>
       <c r="M45" t="n">
-        <v>1671.859558793925</v>
+        <v>1186.520756890282</v>
       </c>
       <c r="N45" t="n">
-        <v>1896.176478190825</v>
+        <v>1814.118720444889</v>
       </c>
       <c r="O45" t="n">
-        <v>1896.176478190825</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P45" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q45" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>513.8536007400712</v>
+        <v>1098.667160263526</v>
       </c>
       <c r="C46" t="n">
-        <v>484.8112968429803</v>
+        <v>929.7309773356194</v>
       </c>
       <c r="D46" t="n">
-        <v>484.8112968429803</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="E46" t="n">
-        <v>484.8112968429803</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F46" t="n">
-        <v>484.8112968429803</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G46" t="n">
-        <v>317.6151975578602</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H46" t="n">
         <v>175.9033664000583</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R46" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.461080510508</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="U46" t="n">
-        <v>1688.385853854706</v>
+        <v>2273.199413378161</v>
       </c>
       <c r="V46" t="n">
-        <v>1433.701365648819</v>
+        <v>2018.514925172274</v>
       </c>
       <c r="W46" t="n">
-        <v>1144.284195611858</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="X46" t="n">
-        <v>916.2946447138411</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y46" t="n">
-        <v>695.5020655703109</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
   </sheetData>
@@ -8057,13 +8057,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>50.07369958270192</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K3" t="n">
-        <v>264.4652370125786</v>
+        <v>221.0467526719079</v>
       </c>
       <c r="L3" t="n">
-        <v>327.4218609627882</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
         <v>465.7050637499999</v>
@@ -8297,7 +8297,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>264.4652370125786</v>
+        <v>145.0294169142015</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
@@ -8309,7 +8309,7 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O6" t="n">
-        <v>274.4264991783519</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P6" t="n">
         <v>318.4627686399372</v>
@@ -8455,7 +8455,7 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>35.04072454780376</v>
+        <v>35.04072454780332</v>
       </c>
       <c r="L8" t="n">
         <v>417.6612145504504</v>
@@ -8531,28 +8531,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>6.233205181928369</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>264.4652370125786</v>
+        <v>62.54499603078648</v>
       </c>
       <c r="L9" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>473.6238973478235</v>
       </c>
       <c r="O9" t="n">
-        <v>306.1979795936941</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P9" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -23418,19 +23418,19 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -23466,16 +23466,16 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>99.76050189075474</v>
+        <v>35.1126395763558</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23658,22 +23658,22 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0.5874149221290565</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>65.75554125013275</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23907,10 +23907,10 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>72.11969353038613</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,7 +23937,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -24129,7 +24129,7 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
@@ -24138,16 +24138,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24183,7 +24183,7 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>116.6691671648111</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24381,7 +24381,7 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="I25" t="n">
         <v>81.26583631856553</v>
@@ -24411,7 +24411,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24612,13 +24612,13 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>71.22040037418695</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>81.26583631856553</v>
@@ -24648,16 +24648,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>286.1844743892441</v>
+        <v>32.89260457060021</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24843,22 +24843,22 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24888,10 +24888,10 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
-        <v>72.11969353038577</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>125.5054897610403</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -25074,25 +25074,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>112.9792378643597</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>146.8157004124962</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -25122,10 +25122,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25143,7 +25143,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -25326,13 +25326,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>57.22910392194223</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25557,13 +25557,13 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>65.54986409393069</v>
+        <v>145.6085800303783</v>
       </c>
       <c r="H40" t="n">
         <v>140.2947128462239</v>
@@ -25596,7 +25596,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25794,10 +25794,10 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -25833,19 +25833,19 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4054503272883</v>
+        <v>34.97276993489194</v>
       </c>
       <c r="U43" t="n">
-        <v>114.1584408891656</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -26025,16 +26025,16 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>138.4949402405078</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -26070,16 +26070,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>114.1584408891651</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>731311.4914411042</v>
+        <v>731311.4914411041</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>731311.4914411042</v>
+        <v>731311.4914411041</v>
       </c>
     </row>
     <row r="9">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>731311.4914411041</v>
+        <v>731311.4914411042</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>731311.4914411042</v>
+        <v>731311.4914411041</v>
       </c>
     </row>
     <row r="12">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>731311.4914411041</v>
+        <v>731311.4914411042</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>731311.4914411041</v>
+        <v>731311.4914411042</v>
       </c>
     </row>
     <row r="15">
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>697885.5043846411</v>
+        <v>697885.5043846413</v>
       </c>
       <c r="C2" t="n">
-        <v>697885.5043846412</v>
+        <v>697885.5043846413</v>
       </c>
       <c r="D2" t="n">
-        <v>697885.5043846406</v>
+        <v>697885.5043846407</v>
       </c>
       <c r="E2" t="n">
         <v>686074.6097365057</v>
       </c>
       <c r="F2" t="n">
+        <v>686074.6097365054</v>
+      </c>
+      <c r="G2" t="n">
         <v>686074.6097365055</v>
-      </c>
-      <c r="G2" t="n">
-        <v>686074.6097365057</v>
       </c>
       <c r="H2" t="n">
         <v>686074.6097365054</v>
       </c>
       <c r="I2" t="n">
-        <v>686074.6097365057</v>
+        <v>686074.6097365054</v>
       </c>
       <c r="J2" t="n">
         <v>686074.6097365058</v>
       </c>
       <c r="K2" t="n">
-        <v>686074.6097365057</v>
+        <v>686074.6097365055</v>
       </c>
       <c r="L2" t="n">
         <v>686074.6097365055</v>
       </c>
       <c r="M2" t="n">
-        <v>686074.6097365058</v>
+        <v>686074.6097365055</v>
       </c>
       <c r="N2" t="n">
+        <v>686074.6097365057</v>
+      </c>
+      <c r="O2" t="n">
+        <v>686074.6097365057</v>
+      </c>
+      <c r="P2" t="n">
         <v>686074.6097365055</v>
-      </c>
-      <c r="O2" t="n">
-        <v>686074.6097365059</v>
-      </c>
-      <c r="P2" t="n">
-        <v>686074.6097365058</v>
       </c>
     </row>
     <row r="3">
@@ -26365,16 +26365,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145445</v>
+        <v>589967.8792145444</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>184756.2785481116</v>
+        <v>184756.2785481117</v>
       </c>
       <c r="E3" t="n">
-        <v>771052.6913808065</v>
+        <v>771052.6913808064</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>124208.5107080586</v>
+        <v>124208.5107080585</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26407,7 +26407,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>1.513344614068046e-10</v>
       </c>
     </row>
     <row r="4">
@@ -26426,16 +26426,16 @@
         <v>176266.9759012794</v>
       </c>
       <c r="E4" t="n">
-        <v>5677.536566682705</v>
+        <v>5677.536566682792</v>
       </c>
       <c r="F4" t="n">
+        <v>5677.536566682744</v>
+      </c>
+      <c r="G4" t="n">
         <v>5677.536566682745</v>
       </c>
-      <c r="G4" t="n">
-        <v>5677.536566682744</v>
-      </c>
       <c r="H4" t="n">
-        <v>5677.536566682745</v>
+        <v>5677.536566682797</v>
       </c>
       <c r="I4" t="n">
         <v>5677.536566682745</v>
@@ -26450,7 +26450,7 @@
         <v>5677.536566682745</v>
       </c>
       <c r="M4" t="n">
-        <v>5677.536566682745</v>
+        <v>5677.536566682744</v>
       </c>
       <c r="N4" t="n">
         <v>5677.536566682744</v>
@@ -26459,7 +26459,7 @@
         <v>5677.536566682744</v>
       </c>
       <c r="P4" t="n">
-        <v>5677.536566682744</v>
+        <v>5677.536566682745</v>
       </c>
     </row>
     <row r="5">
@@ -26475,7 +26475,7 @@
         <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>87562.0451708468</v>
+        <v>87562.04517084679</v>
       </c>
       <c r="E5" t="n">
         <v>101122.5298239071</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-184863.8683563462</v>
+        <v>-184863.8683563459</v>
       </c>
       <c r="C6" t="n">
-        <v>405104.0108581984</v>
+        <v>405104.0108581985</v>
       </c>
       <c r="D6" t="n">
         <v>249300.2047644029</v>
       </c>
       <c r="E6" t="n">
-        <v>-192125.5272892476</v>
+        <v>-191812.8859603263</v>
       </c>
       <c r="F6" t="n">
-        <v>578927.1640915588</v>
+        <v>579239.80542048</v>
       </c>
       <c r="G6" t="n">
-        <v>578927.1640915589</v>
+        <v>579239.8054204801</v>
       </c>
       <c r="H6" t="n">
-        <v>578927.1640915587</v>
+        <v>579239.80542048</v>
       </c>
       <c r="I6" t="n">
-        <v>578927.1640915589</v>
+        <v>579239.80542048</v>
       </c>
       <c r="J6" t="n">
-        <v>402503.9448989659</v>
+        <v>402816.5862278872</v>
       </c>
       <c r="K6" t="n">
-        <v>578927.1640915589</v>
+        <v>579239.8054204801</v>
       </c>
       <c r="L6" t="n">
-        <v>578927.1640915588</v>
+        <v>579239.8054204801</v>
       </c>
       <c r="M6" t="n">
-        <v>454718.6533835004</v>
+        <v>455031.2947124215</v>
       </c>
       <c r="N6" t="n">
-        <v>578927.1640915588</v>
+        <v>579239.8054204802</v>
       </c>
       <c r="O6" t="n">
-        <v>578927.1640915591</v>
+        <v>579239.8054204802</v>
       </c>
       <c r="P6" t="n">
-        <v>578927.164091559</v>
+        <v>579239.80542048</v>
       </c>
     </row>
   </sheetData>
@@ -26737,10 +26737,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
         <v>593.4761003380651</v>
@@ -26792,13 +26792,13 @@
         <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="F4" t="n">
         <v>1172.708288099648</v>
@@ -26831,7 +26831,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="P4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
     </row>
   </sheetData>
@@ -26959,13 +26959,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>215.7324361209784</v>
+        <v>215.7324361209785</v>
       </c>
       <c r="E3" t="n">
         <v>774.4994000036087</v>
@@ -27001,7 +27001,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
     </row>
     <row r="4">
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>498.421015345093</v>
+        <v>498.4210153450929</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545559</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>498.421015345093</v>
+        <v>498.4210153450929</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>498.421015345093</v>
+        <v>498.4210153450929</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27384,7 +27384,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -27393,13 +27393,13 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>334.5495417479062</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>55.72058913644173</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27542,7 +27542,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>125.6297823812639</v>
+        <v>125.6297823812641</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -27560,7 +27560,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27584,7 +27584,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
@@ -27618,7 +27618,7 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -27663,25 +27663,25 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>188.6759309463762</v>
       </c>
       <c r="U5" t="n">
-        <v>228.5527875315728</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27773,13 +27773,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>120.1051426060686</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -27794,10 +27794,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27818,13 +27818,13 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>212.1455389500189</v>
+        <v>57.54430838091949</v>
       </c>
       <c r="T7" t="n">
         <v>225.0351054580843</v>
@@ -27852,16 +27852,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>338.6709431590106</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -27906,7 +27906,7 @@
         <v>154.6528871281402</v>
       </c>
       <c r="T8" t="n">
-        <v>212.651863114966</v>
+        <v>185.2464429117508</v>
       </c>
       <c r="U8" t="n">
         <v>251.1547862223006</v>
@@ -28031,7 +28031,7 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>14.82366444125853</v>
+        <v>14.82366444125852</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28152,7 +28152,7 @@
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>1.041424928414132e-12</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -28857,7 +28857,7 @@
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-12</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -31047,19 +31047,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L2" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31074,13 +31074,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31120,16 +31120,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I3" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31147,22 +31147,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,16 +31199,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31223,16 +31223,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31278,46 +31278,46 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H5" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L5" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P5" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q5" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31357,16 +31357,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I6" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31384,22 +31384,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S6" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,19 +31436,19 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I7" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L7" t="n">
         <v>101.2724571246924</v>
@@ -31460,22 +31460,22 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U7" t="n">
         <v>0.0371551145131561</v>
@@ -31852,10 +31852,10 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>463.9598929192557</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P12" t="n">
         <v>133.9744074143302</v>
@@ -32086,7 +32086,7 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>650.2626573149953</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
         <v>131.3417120833333</v>
@@ -32095,7 +32095,7 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214698</v>
+        <v>466.5925882502527</v>
       </c>
       <c r="Q15" t="n">
         <v>139.9817740860215</v>
@@ -32326,10 +32326,10 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>463.9598929192557</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P18" t="n">
         <v>133.9744074143302</v>
@@ -32560,13 +32560,13 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>444.2274915982894</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P21" t="n">
         <v>133.9744074143302</v>
@@ -32797,13 +32797,13 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>444.2274915982894</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P24" t="n">
         <v>133.9744074143302</v>
@@ -33654,7 +33654,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J35" t="n">
         <v>466.7546155663283</v>
@@ -33742,7 +33742,7 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>543.5992845760902</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
         <v>745.5466476862121</v>
@@ -33754,7 +33754,7 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>466.5925882502527</v>
       </c>
       <c r="Q36" t="n">
         <v>139.9817740860215</v>
@@ -33979,7 +33979,7 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>543.5992845760902</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
         <v>745.5466476862121</v>
@@ -33991,7 +33991,7 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>466.5925882502527</v>
       </c>
       <c r="Q39" t="n">
         <v>139.9817740860215</v>
@@ -34359,7 +34359,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
@@ -34371,31 +34371,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L44" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S44" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34438,49 +34438,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H45" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I45" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J45" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N45" t="n">
-        <v>357.9244589488886</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O45" t="n">
-        <v>142.5962444444444</v>
+        <v>188.4731159523453</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R45" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34520,25 +34520,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34547,19 +34547,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34698,19 +34698,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K2" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34780,22 +34780,22 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>257.8255762031298</v>
+        <v>214.4070918624591</v>
       </c>
       <c r="L3" t="n">
-        <v>365.2844632307148</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M3" t="n">
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
         <v>173.8110948137341</v>
@@ -34935,25 +34935,25 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K5" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P5" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q5" t="n">
         <v>153.9975062898689</v>
@@ -35014,10 +35014,10 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.01733575770692</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K6" t="n">
-        <v>257.8255762031298</v>
+        <v>138.3897561047527</v>
       </c>
       <c r="L6" t="n">
         <v>408.7029475713857</v>
@@ -35026,13 +35026,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
-        <v>325.1459203262123</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
         <v>173.8110948137341</v>
@@ -35096,7 +35096,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L7" t="n">
         <v>128.8624823850085</v>
@@ -35111,7 +35111,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35175,7 +35175,7 @@
         <v>21.44873736705384</v>
       </c>
       <c r="K8" t="n">
-        <v>118.4378503807253</v>
+        <v>118.4378503807249</v>
       </c>
       <c r="L8" t="n">
         <v>558.3972305517163</v>
@@ -35251,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>119.8578301584805</v>
       </c>
       <c r="K9" t="n">
-        <v>332.7559639452625</v>
+        <v>130.8357229634703</v>
       </c>
       <c r="L9" t="n">
-        <v>509.4561008748672</v>
+        <v>138.615755571408</v>
       </c>
       <c r="M9" t="n">
         <v>647.0155045122269</v>
       </c>
       <c r="N9" t="n">
-        <v>200.663375406732</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="O9" t="n">
-        <v>467.3215277439574</v>
+        <v>554.9858674269929</v>
       </c>
       <c r="P9" t="n">
-        <v>428.2502711927643</v>
+        <v>109.7875025528271</v>
       </c>
       <c r="Q9" t="n">
-        <v>22.96660727472423</v>
+        <v>233.0438950105733</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35500,10 +35500,10 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>332.6181808359224</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -35658,7 +35658,7 @@
         <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193519</v>
       </c>
       <c r="O14" t="n">
         <v>696.488651224316</v>
@@ -35734,7 +35734,7 @@
         <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
-        <v>508.128623392977</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
@@ -35743,7 +35743,7 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071395</v>
+        <v>332.6181808359224</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35898,7 +35898,7 @@
         <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P17" t="n">
         <v>559.5874541683811</v>
@@ -35974,10 +35974,10 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>332.6181808359224</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -36144,7 +36144,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36208,13 +36208,13 @@
         <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
-        <v>302.093457676271</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -36445,13 +36445,13 @@
         <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>302.093457676271</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -36852,10 +36852,10 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -37302,7 +37302,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
@@ -37390,7 +37390,7 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>405.0449047962161</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
@@ -37402,7 +37402,7 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>332.6181808359224</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -37548,7 +37548,7 @@
         <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
-        <v>632.0799921462693</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
         <v>735.3001107902948</v>
@@ -37627,7 +37627,7 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>405.0449047962161</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
@@ -37639,7 +37639,7 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>332.6181808359224</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -38013,34 +38013,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L44" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O44" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38092,34 +38092,34 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>226.5827468655553</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>45.87687150790087</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38174,22 +38174,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K46" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>
